--- a/CSSP Tools-Comments and Suggestions_old.xlsx
+++ b/CSSP Tools-Comments and Suggestions_old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14235" windowHeight="5700" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14235" windowHeight="5700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input Tool" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="377">
   <si>
     <t>Item</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Web Tools name</t>
   </si>
   <si>
-    <t>* And possibly other fields as well. Nice to have some user configurability options. I believe that NS also omits MAX FC (GP)</t>
-  </si>
-  <si>
     <t>WT-22</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
   </si>
   <si>
     <t>I think this was addressed - it’s a real estate issue. GP</t>
-  </si>
-  <si>
-    <t>Means data for that subsect/ run/ datedate already exists in databse,</t>
   </si>
   <si>
     <t>Priority</t>
@@ -790,9 +784,6 @@
     <t>combine with WT-7</t>
   </si>
   <si>
-    <t>combine with WT-14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Can we make it look the same also  (a solid block with letter in it)? This is to have class status stay next to %&gt;43.  If we can individually select for display (WT-12 &amp;WT-17)</t>
   </si>
   <si>
@@ -802,15 +793,9 @@
     <t>Name the FC summary table automatically based on the query</t>
   </si>
   <si>
-    <t>more to discuss</t>
-  </si>
-  <si>
     <t>We need to come up with a different way to select the runs used for the calculation of the summary stats. Needs to treat all the stations as one</t>
   </si>
   <si>
-    <t>ask Charles</t>
-  </si>
-  <si>
     <t>WT-27</t>
   </si>
   <si>
@@ -955,9 +940,6 @@
     <t>Tables for reports</t>
   </si>
   <si>
-    <t>High priority</t>
-  </si>
-  <si>
     <t>Queries by type</t>
   </si>
   <si>
@@ -1178,15 +1160,6 @@
   </si>
   <si>
     <t>|||SUBSECTOR_MWQM_SITES_TEMPERATURE_TABLE|||</t>
-  </si>
-  <si>
-    <t>Will create a table showing all the FC data</t>
-  </si>
-  <si>
-    <t>Will create a table showing all the salinity data</t>
-  </si>
-  <si>
-    <t>Will create a table showing all the temperature data</t>
   </si>
   <si>
     <t>Content General</t>
@@ -1267,12 +1240,78 @@
   <si>
     <t>Would it be possible to have the option to select the desired N from the MWQM Sites tab prior to selecting the analysis button? Currently, if you select 10, 15, 20, 25, 30, 35, 40 on the sites tab, it is only applicable to the sites page. If you select "15" and proceed to the analysis page, N=30 still defaults so you have to wait for that to load and then select N=15 and wait for that to load. This tend to get frustrating when working with larger subsectors.</t>
   </si>
+  <si>
+    <t>Was not able to recreate error</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles tried but the whole cell becomes red and it looks worst.  </t>
+  </si>
+  <si>
+    <t>Yes… maybe (see WT-31)</t>
+  </si>
+  <si>
+    <t>This one will depends on the way we will show raw data in the reports (need group discussion). If the group still wants this to be the case it can be done…</t>
+  </si>
+  <si>
+    <t>I will need to do more test on this. But for now I can't reproduce the error. (Charles)</t>
+  </si>
+  <si>
+    <t>The group will need to re-discuss this one. Is now showing the used runs and samples (Charles)</t>
+  </si>
+  <si>
+    <t>What is written in column D is not the way the system works. I did however show names of the "Save parameters for report" which can help you to visualized what the report will produced. (Charles)</t>
+  </si>
+  <si>
+    <t>These gray bubbles are recalculated once in a while for now because we are still importing a lot of data from ASGAD and others. Later all these bubbles will be calculated automatically. It's already in the system, I just removed it temporarily.</t>
+  </si>
+  <si>
+    <t>Enhanced the text (Charles)</t>
+  </si>
+  <si>
+    <t>Changed to Pending approval</t>
+  </si>
+  <si>
+    <t>Yes/Maybe need group ok</t>
+  </si>
+  <si>
+    <t>Added another tab called "Analysis". Once on that tab, going to another subsector should automatically select that tab so less clicking….  I don't want it to be the automatic page loaded when people are browsing. (Charles)</t>
+  </si>
+  <si>
+    <t>Added Joe Pomeroy to the list of people receiving emails.</t>
+  </si>
+  <si>
+    <t>did move some query options at the top. Group will need to discuss and agree on this (Charles)</t>
+  </si>
+  <si>
+    <t>ask Charles… will need more detail (Charles)</t>
+  </si>
+  <si>
+    <t>On top of Wet-Dry-All it now gives number or runs used, do we want more info</t>
+  </si>
+  <si>
+    <t>Need group discussion. Is this on CSSPWebTools or just the reports outputs (Charles)</t>
+  </si>
+  <si>
+    <t>* And possibly other fields as well. Nice to have some user configurability options. I believe that NS also omits MAX FC (GP) see WT-12 (Charles)</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the FC data (this tag needs to be below all the |||SUBSECTOR_FC_SUMMARY_STAT_yyy||| to work properly)</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the salinity data (this tag needs to be below all the |||SUBSECTOR_FC_SUMMARY_STAT_yyy||| to work properly)</t>
+  </si>
+  <si>
+    <t>Will create a table showing all the temperature data (this tag needs to be below all the |||SUBSECTOR_FC_SUMMARY_STAT_yyy||| to work properly)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1325,6 +1364,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1392,7 +1437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1474,6 +1519,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1796,7 +1844,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>7</v>
@@ -1811,10 +1859,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>30</v>
@@ -1831,13 +1879,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1853,13 +1901,13 @@
         <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1881,7 +1929,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1897,19 +1945,19 @@
         <v>68</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -1920,7 +1968,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>70</v>
@@ -1929,7 +1977,7 @@
         <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1948,10 +1996,10 @@
         <v>72</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1967,13 +2015,13 @@
         <v>75</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1989,13 +2037,13 @@
         <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2008,16 +2056,16 @@
         <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2033,13 +2081,13 @@
         <v>105</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2049,19 +2097,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2083,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2099,13 +2147,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2127,7 +2175,7 @@
         <v>62</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2143,13 +2191,13 @@
         <v>19</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2171,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2193,7 +2241,7 @@
         <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2209,17 +2257,17 @@
         <v>69</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -2227,26 +2275,26 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>36</v>
@@ -2255,19 +2303,19 @@
         <v>63</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2449,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2515,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2482,10 +2530,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>30</v>
@@ -2508,10 +2556,14 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
@@ -2524,18 +2576,22 @@
         <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2552,12 +2608,16 @@
         <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2568,15 +2628,17 @@
         <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -2596,9 +2658,11 @@
         <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -2609,7 +2673,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>89</v>
@@ -2618,11 +2682,13 @@
         <v>90</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>112</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2633,18 +2699,20 @@
         <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -2652,24 +2720,26 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2680,37 +2750,43 @@
         <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>1</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.2">
@@ -2724,13 +2800,13 @@
         <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2740,23 +2816,25 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>151</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
@@ -2764,44 +2842,52 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -2814,13 +2900,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2836,14 +2922,18 @@
         <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
@@ -2862,7 +2952,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2878,7 +2968,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>55</v>
@@ -2886,7 +2976,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.2">
@@ -2938,7 +3028,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>55</v>
@@ -2949,7 +3039,7 @@
     </row>
     <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
@@ -2966,7 +3056,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2983,7 +3073,7 @@
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>110</v>
@@ -2992,10 +3082,10 @@
         <v>111</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3012,15 +3102,17 @@
         <v>92</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="31" t="s">
+        <v>137</v>
+      </c>
       <c r="H26" s="31" t="s">
-        <v>211</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.2">
@@ -3028,21 +3120,23 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3050,41 +3144,43 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>215</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -3092,55 +3188,61 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>1</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="G31" s="31"/>
+        <v>348</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="H31" s="32" t="s">
-        <v>266</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>109</v>
@@ -3152,16 +3254,16 @@
     <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3238,7 +3340,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3285,7 +3387,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>95</v>
@@ -3301,13 +3403,13 @@
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>109</v>
@@ -3317,178 +3419,178 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -3534,7 +3636,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>33</v>
@@ -3560,22 +3662,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3586,19 +3688,19 @@
         <v>97</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3606,22 +3708,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3629,22 +3731,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -3652,22 +3754,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3675,22 +3777,22 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3698,22 +3800,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3721,22 +3823,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.2">
@@ -3744,22 +3846,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3767,22 +3869,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -3790,22 +3892,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3813,22 +3915,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
@@ -3836,22 +3938,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -3891,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3903,10 +4005,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -3914,222 +4016,222 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4146,40 +4248,40 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C31" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4196,41 +4298,41 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B41" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" t="s">
         <v>307</v>
-      </c>
-      <c r="C41" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4243,63 +4345,63 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C50" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
